--- a/src/utils/sxsyzlzq/friends/guyue/zz_guyue_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/guyue/zz_guyue_level.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="13380" windowHeight="12870" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="禅意" sheetId="6" r:id="rId1"/>
     <sheet name="蛮石" sheetId="8" r:id="rId2"/>
-    <sheet name="冬神" sheetId="10" r:id="rId3"/>
-    <sheet name="帝国" sheetId="7" r:id="rId4"/>
+    <sheet name="帝国" sheetId="7" r:id="rId3"/>
+    <sheet name="冬神" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>名称</t>
   </si>
@@ -44,12 +44,12 @@
     <t>雪庐草人</t>
   </si>
   <si>
-    <t>卜命道长</t>
-  </si>
-  <si>
     <t>苦行武僧</t>
   </si>
   <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
     <t>黑松林货郎</t>
   </si>
   <si>
@@ -80,24 +80,27 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
-    <t>植甲师</t>
-  </si>
-  <si>
     <t>传记·月落</t>
   </si>
   <si>
-    <t>宫廷乐师</t>
-  </si>
-  <si>
     <t>驱魔道人</t>
   </si>
   <si>
     <t>雪山飞狐</t>
   </si>
   <si>
+    <t>当铺掌柜</t>
+  </si>
+  <si>
     <t>御风武者</t>
   </si>
   <si>
+    <t>百刺浪客</t>
+  </si>
+  <si>
+    <t>黑竹林地</t>
+  </si>
+  <si>
     <t>墨轩隐士</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
     <t>万物之灵</t>
   </si>
   <si>
-    <t>寒霜寺护院僧</t>
-  </si>
-  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
@@ -125,15 +125,18 @@
     <t>神机玄女·轩</t>
   </si>
   <si>
+    <t>悟能禅杖</t>
+  </si>
+  <si>
     <t>雪域春光·凛</t>
   </si>
   <si>
-    <t>悟能禅杖</t>
-  </si>
-  <si>
     <t>逍遥居士·铭</t>
   </si>
   <si>
+    <t>逸云剑·任大师</t>
+  </si>
+  <si>
     <t>橙色卡等：</t>
   </si>
   <si>
@@ -176,15 +179,66 @@
     <t>旷野游侠·大羽</t>
   </si>
   <si>
-    <t>血饮烈斧·凯</t>
-  </si>
-  <si>
-    <t>原野大祭师·鲁玛</t>
-  </si>
-  <si>
     <t>蛮石卡等：</t>
   </si>
   <si>
+    <t>圣殿斥候</t>
+  </si>
+  <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>民兵队长</t>
+  </si>
+  <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
+    <t>增援战线</t>
+  </si>
+  <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
+    <t>光明惩戒</t>
+  </si>
+  <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>白袍主教</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>惩戒天使</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
     <t>骨爆</t>
   </si>
   <si>
@@ -197,12 +251,12 @@
     <t>极地狂信者</t>
   </si>
   <si>
-    <t>绝望之地</t>
-  </si>
-  <si>
     <t>灵魂抽取</t>
   </si>
   <si>
+    <t>寒彻骨</t>
+  </si>
+  <si>
     <t>冰峰甲虫</t>
   </si>
   <si>
@@ -213,54 +267,6 @@
   </si>
   <si>
     <t>冬神卡等：</t>
-  </si>
-  <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
-    <t>田园守望者</t>
-  </si>
-  <si>
-    <t>光明惩戒</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
-    <t>夺取阵地</t>
-  </si>
-  <si>
-    <t>圣枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
   </si>
 </sst>
 </file>
@@ -897,11 +903,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1226,8 +1235,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1275,10 +1284,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1289,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1300,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1355,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1399,7 +1408,7 @@
       </c>
       <c r="C16" s="1">
         <f>AVERAGE(C2:C13)</f>
-        <v>18.0833333333333</v>
+        <v>18.6666666666667</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -1411,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1419,10 +1428,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1430,10 +1439,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1444,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1452,7 +1461,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
         <v>20</v>
@@ -1477,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1488,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1496,10 +1505,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1510,12 +1519,12 @@
         <v>5</v>
       </c>
       <c r="C28" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>5</v>
@@ -1525,15 +1534,9 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2">
-        <v>18</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2"/>
@@ -1541,120 +1544,126 @@
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
+      <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="2">
-        <f>AVERAGE(C19:C30)</f>
-        <v>16.1666666666667</v>
+      <c r="C32" s="2">
+        <f>AVERAGE(C19:C29)</f>
+        <v>16.7272727272727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="A36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="4">
         <v>3</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="4">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="3">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3">
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="4">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="3">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="3">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="3">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="3">
-        <v>5</v>
-      </c>
-      <c r="C41" s="3">
-        <v>17</v>
-      </c>
-    </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="3">
-        <f>AVERAGE(C36:C41)</f>
-        <v>15.6666666666667</v>
+      <c r="B44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="4">
+        <f>AVERAGE(C35:C41)</f>
+        <v>15.4285714285714</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="4">
-        <f>AVERAGE(C2:C13,C19:C30,C36:C41)</f>
-        <v>16.8333333333333</v>
+      <c r="B47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="5">
+        <f>AVERAGE(C2:C13,C19:C29,C35:C41)</f>
+        <v>17.2</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1678,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A27" sqref="$A27:$XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1692,7 +1701,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1706,21 +1715,21 @@
         <v>38</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1731,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1739,32 +1748,32 @@
         <v>40</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1772,166 +1781,166 @@
         <v>42</v>
       </c>
       <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>16</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>15.2</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C15:C18)</f>
+      <c r="C23" s="2">
+        <f>AVERAGE(C17:C20)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="3">
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="C26" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4">
+        <f>AVERAGE(C26:C26)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="3">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
-        <v>16.1333333333333</v>
+      <c r="C32" s="5">
+        <f>AVERAGE(C2:C11,C17:C20,C26:C26)</f>
+        <v>15.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1943,10 +1952,331 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>15.125</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C15:C21)</f>
+        <v>15.4285714285714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="4">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="4">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C27:C30)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="5">
+        <f>AVERAGE(C2:C9,C15:C21,C27:C30)</f>
+        <v>15.1052631578947</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="G21" sqref="D18 G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1969,7 +2299,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1980,7 +2310,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1991,7 +2321,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -2002,29 +2332,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2052,25 +2382,31 @@
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>16.1666666666667</v>
+        <v>15.5</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="2">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2"/>
@@ -2078,362 +2414,79 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2">
-        <f>AVERAGE(C13:C13)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="3">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="E21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="3">
-        <f>AVERAGE(C19:C20)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="4">
-        <f>AVERAGE(C2:C7,C13:C13,C19:C20)</f>
-        <v>16.1111111111111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>15.75</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+        <f>AVERAGE(C13:C14)</f>
+        <v>14.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="E22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2">
-        <f>AVERAGE(C11:C17)</f>
-        <v>15.1428571428571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="3">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4">
+        <f>AVERAGE(C20:C21)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="3">
-        <v>6</v>
-      </c>
-      <c r="C26" s="3">
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="5">
+        <f>AVERAGE(C2:C7,C13:C14,C20:C21)</f>
         <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="3">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C23:C27)</f>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C5,C11:C17,C23:C27)</f>
-        <v>14.8125</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/guyue/zz_guyue_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/guyue/zz_guyue_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13380" windowHeight="12870" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="17220" windowHeight="11340" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="禅意" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>名称</t>
   </si>
@@ -44,15 +44,12 @@
     <t>雪庐草人</t>
   </si>
   <si>
-    <t>苦行武僧</t>
+    <t>黑松林货郎</t>
   </si>
   <si>
     <t>长耳庄巧姑</t>
   </si>
   <si>
-    <t>黑松林货郎</t>
-  </si>
-  <si>
     <t>龟族僧人</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
     <t>连击</t>
   </si>
   <si>
+    <t>叶幻师</t>
+  </si>
+  <si>
     <t>铁山靠</t>
   </si>
   <si>
@@ -83,6 +83,9 @@
     <t>传记·月落</t>
   </si>
   <si>
+    <t>宫廷乐师</t>
+  </si>
+  <si>
     <t>驱魔道人</t>
   </si>
   <si>
@@ -98,9 +101,6 @@
     <t>百刺浪客</t>
   </si>
   <si>
-    <t>黑竹林地</t>
-  </si>
-  <si>
     <t>墨轩隐士</t>
   </si>
   <si>
@@ -113,6 +113,9 @@
     <t>万物之灵</t>
   </si>
   <si>
+    <t>寒霜寺护院僧</t>
+  </si>
+  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
@@ -131,12 +134,12 @@
     <t>雪域春光·凛</t>
   </si>
   <si>
+    <t>三熊阵</t>
+  </si>
+  <si>
     <t>逍遥居士·铭</t>
   </si>
   <si>
-    <t>逸云剑·任大师</t>
-  </si>
-  <si>
     <t>橙色卡等：</t>
   </si>
   <si>
@@ -212,16 +215,16 @@
     <t>圣殿御卫</t>
   </si>
   <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
     <t>圣殿骑士</t>
   </si>
   <si>
     <t>召集护卫</t>
   </si>
   <si>
-    <t>惩戒天使</t>
+    <t>禁卫指挥官</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
   </si>
   <si>
     <t>圣枪·卡洛琳</t>
@@ -230,6 +233,9 @@
     <t>明日之音·露娜</t>
   </si>
   <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
@@ -245,19 +251,16 @@
     <t>寒风草人</t>
   </si>
   <si>
+    <t>寒冬将至</t>
+  </si>
+  <si>
     <t>神庙魔像</t>
   </si>
   <si>
     <t>极地狂信者</t>
   </si>
   <si>
-    <t>灵魂抽取</t>
-  </si>
-  <si>
-    <t>寒彻骨</t>
-  </si>
-  <si>
-    <t>冰峰甲虫</t>
+    <t>寒冰骨墙</t>
   </si>
   <si>
     <t>寒风血刃</t>
@@ -903,14 +906,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1233,10 +1233,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1306,10 +1306,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1353,7 +1353,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1364,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C16" s="1">
         <f>AVERAGE(C2:C13)</f>
-        <v>18.6666666666667</v>
+        <v>18.4166666666667</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -1428,10 +1428,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1453,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1461,10 +1461,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1486,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1530,13 +1530,19 @@
         <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2"/>
@@ -1544,126 +1550,131 @@
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2">
-        <f>AVERAGE(C19:C29)</f>
-        <v>16.7272727272727</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="4">
+      <c r="C33" s="2">
+        <f>AVERAGE(C19:C30)</f>
+        <v>16.8333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3">
         <v>3</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C36" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="4">
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3">
         <v>3</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C37" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="4">
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3">
         <v>4</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C38" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="4">
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3">
         <v>4</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C40" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="4">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="4">
-        <v>5</v>
-      </c>
-      <c r="C40" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="4">
-        <v>7</v>
-      </c>
-      <c r="C41" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="4">
-        <f>AVERAGE(C35:C41)</f>
-        <v>15.4285714285714</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C45" s="3">
+        <f>AVERAGE(C36:C42)</f>
+        <v>15.5714285714286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="5">
-        <f>AVERAGE(C2:C13,C19:C29,C35:C41)</f>
-        <v>17.2</v>
+      <c r="B48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="4">
+        <f>AVERAGE(C2:C13,C19:C30,C36:C42)</f>
+        <v>17.1612903225806</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1689,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1701,7 +1712,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1712,7 +1723,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1723,7 +1734,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1734,7 +1745,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1745,7 +1756,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1756,7 +1767,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -1767,7 +1778,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1778,7 +1789,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1789,7 +1800,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -1800,7 +1811,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1834,7 +1845,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -1845,7 +1856,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1856,7 +1867,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -1867,7 +1878,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -1891,7 +1902,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C17:C20)</f>
@@ -1899,46 +1910,46 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="4">
         <f>AVERAGE(C2:C11,C17:C20,C26:C26)</f>
         <v>15.8666666666667</v>
       </c>
@@ -1952,10 +1963,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1978,7 +1989,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1989,29 +2000,29 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2022,18 +2033,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2044,7 +2055,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -2055,7 +2066,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2083,13 +2094,13 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>15.125</v>
+        <v>16.25</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -2106,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2114,10 +2125,10 @@
         <v>59</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2125,10 +2136,10 @@
         <v>60</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2161,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2179,89 +2190,111 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C15:C21)</f>
-        <v>15.4285714285714</v>
+        <v>14.8571428571429</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C28" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="4">
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="4">
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3">
         <v>6</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C31" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="4">
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="3">
         <v>8</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C32" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C27:C30)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="5">
-        <f>AVERAGE(C2:C9,C15:C21,C27:C30)</f>
-        <v>15.1052631578947</v>
+      <c r="C35" s="3">
+        <f>AVERAGE(C27:C32)</f>
+        <v>13.6666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="4">
+        <f>AVERAGE(C2:C9,C15:C21,C27:C32)</f>
+        <v>15.047619047619</v>
       </c>
     </row>
   </sheetData>
@@ -2273,13 +2306,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="D18 G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -2299,7 +2332,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2310,7 +2343,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2321,172 +2354,147 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>14</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>15.5</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>16.2</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <f>AVERAGE(C12:C12)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2">
-        <f>AVERAGE(C13:C14)</f>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3">
+        <f>AVERAGE(C18:C19)</f>
         <v>14.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="4">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="E22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="4">
-        <f>AVERAGE(C20:C21)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="5">
-        <f>AVERAGE(C2:C7,C13:C14,C20:C21)</f>
-        <v>15</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="4">
+        <f>AVERAGE(C2:C6,C12:C12,C18:C19)</f>
+        <v>15.25</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/guyue/zz_guyue_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/guyue/zz_guyue_level.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="11340" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="禅意" sheetId="6" r:id="rId1"/>
-    <sheet name="蛮石" sheetId="8" r:id="rId2"/>
-    <sheet name="帝国" sheetId="7" r:id="rId3"/>
-    <sheet name="冬神" sheetId="10" r:id="rId4"/>
+    <sheet name="帝国" sheetId="7" r:id="rId2"/>
+    <sheet name="冬神" sheetId="10" r:id="rId3"/>
+    <sheet name="蛮石" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>名称</t>
   </si>
@@ -44,12 +44,12 @@
     <t>雪庐草人</t>
   </si>
   <si>
-    <t>黑松林货郎</t>
-  </si>
-  <si>
     <t>长耳庄巧姑</t>
   </si>
   <si>
+    <t>苦行武僧</t>
+  </si>
+  <si>
     <t>龟族僧人</t>
   </si>
   <si>
@@ -68,12 +68,6 @@
     <t>铁山靠</t>
   </si>
   <si>
-    <t>风卷残云</t>
-  </si>
-  <si>
-    <t>羊族壮士</t>
-  </si>
-  <si>
     <t>小计：</t>
   </si>
   <si>
@@ -86,6 +80,9 @@
     <t>宫廷乐师</t>
   </si>
   <si>
+    <t>扫叶僧</t>
+  </si>
+  <si>
     <t>驱魔道人</t>
   </si>
   <si>
@@ -101,7 +98,13 @@
     <t>百刺浪客</t>
   </si>
   <si>
-    <t>墨轩隐士</t>
+    <t>龙纹尊者</t>
+  </si>
+  <si>
+    <t>赏金刺客</t>
+  </si>
+  <si>
+    <t>白鹿贤士</t>
   </si>
   <si>
     <t>萌化术</t>
@@ -113,9 +116,6 @@
     <t>万物之灵</t>
   </si>
   <si>
-    <t>寒霜寺护院僧</t>
-  </si>
-  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
@@ -125,18 +125,15 @@
     <t>灵龟神丹</t>
   </si>
   <si>
+    <t>雪域春光·凛</t>
+  </si>
+  <si>
+    <t>悟能禅杖</t>
+  </si>
+  <si>
     <t>神机玄女·轩</t>
   </si>
   <si>
-    <t>悟能禅杖</t>
-  </si>
-  <si>
-    <t>雪域春光·凛</t>
-  </si>
-  <si>
-    <t>三熊阵</t>
-  </si>
-  <si>
     <t>逍遥居士·铭</t>
   </si>
   <si>
@@ -149,6 +146,99 @@
     <t>禅意卡等：</t>
   </si>
   <si>
+    <t>圣殿斥候</t>
+  </si>
+  <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>民兵队长</t>
+  </si>
+  <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
+    <t>增援战线</t>
+  </si>
+  <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
+    <t>光明惩戒</t>
+  </si>
+  <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>白袍主教</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>冲锋装备</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>田园保卫战</t>
+  </si>
+  <si>
+    <t>禁卫指挥官</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
+    <t>骨爆</t>
+  </si>
+  <si>
+    <t>转化仪式</t>
+  </si>
+  <si>
+    <t>寒风草人</t>
+  </si>
+  <si>
+    <t>寒冬将至</t>
+  </si>
+  <si>
+    <t>神庙魔像</t>
+  </si>
+  <si>
+    <t>极地狂信者</t>
+  </si>
+  <si>
+    <t>冰峰甲虫</t>
+  </si>
+  <si>
+    <t>寒风血刃</t>
+  </si>
+  <si>
+    <t>永夜女王</t>
+  </si>
+  <si>
+    <t>冬神卡等：</t>
+  </si>
+  <si>
     <t>愚笨鲸头鹅</t>
   </si>
   <si>
@@ -158,9 +248,6 @@
     <t>势如破竹</t>
   </si>
   <si>
-    <t>迅捷长矛手</t>
-  </si>
-  <si>
     <t>天降碎石</t>
   </si>
   <si>
@@ -170,6 +257,12 @@
     <t>无畏猎户</t>
   </si>
   <si>
+    <t>暴怒野人</t>
+  </si>
+  <si>
+    <t>地洞巨獾</t>
+  </si>
+  <si>
     <t>飞斧狂人</t>
   </si>
   <si>
@@ -179,97 +272,7 @@
     <t>石斧头领</t>
   </si>
   <si>
-    <t>旷野游侠·大羽</t>
-  </si>
-  <si>
     <t>蛮石卡等：</t>
-  </si>
-  <si>
-    <t>圣殿斥候</t>
-  </si>
-  <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>民兵队长</t>
-  </si>
-  <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
-    <t>增援战线</t>
-  </si>
-  <si>
-    <t>田园守望者</t>
-  </si>
-  <si>
-    <t>光明惩戒</t>
-  </si>
-  <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>骨爆</t>
-  </si>
-  <si>
-    <t>寒风草人</t>
-  </si>
-  <si>
-    <t>寒冬将至</t>
-  </si>
-  <si>
-    <t>神庙魔像</t>
-  </si>
-  <si>
-    <t>极地狂信者</t>
-  </si>
-  <si>
-    <t>寒冰骨墙</t>
-  </si>
-  <si>
-    <t>寒风血刃</t>
-  </si>
-  <si>
-    <t>永夜女王</t>
-  </si>
-  <si>
-    <t>冬神卡等：</t>
   </si>
 </sst>
 </file>
@@ -916,10 +919,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1233,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1298,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1353,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1368,59 +1371,59 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>19.1</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <f>AVERAGE(C2:C13)</f>
-        <v>18.4166666666667</v>
-      </c>
-      <c r="D16" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1428,10 +1431,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1453,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1461,10 +1464,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1486,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1508,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1516,10 +1519,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1538,10 +1541,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1556,125 +1559,114 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="2">
-        <f>AVERAGE(C19:C30)</f>
-        <v>16.8333333333333</v>
+        <f>AVERAGE(C17:C30)</f>
+        <v>16.8571428571429</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>3</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="4">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="4">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="3">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3">
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="3">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="3">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="3">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="3">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="3">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="C44" s="4">
+        <f>AVERAGE(C36:C41)</f>
+        <v>16.1666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="3">
-        <f>AVERAGE(C36:C42)</f>
-        <v>15.5714285714286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="4">
-        <f>AVERAGE(C2:C13,C19:C30,C36:C42)</f>
-        <v>17.1612903225806</v>
+      <c r="C47" s="3">
+        <f>AVERAGE(C2:C11,C17:C30,C36:C41)</f>
+        <v>17.4666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1678,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1712,13 +1704,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1726,29 +1718,29 @@
         <v>39</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1759,43 +1751,43 @@
         <v>41</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1803,55 +1795,55 @@
         <v>44</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>16.8888888888889</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>15.2</v>
-      </c>
-      <c r="D14" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1859,10 +1851,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1870,10 +1862,10 @@
         <v>47</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1881,77 +1873,165 @@
         <v>48</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C17:C20)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
-        <v>14</v>
+      <c r="C28" s="2">
+        <f>AVERAGE(C16:C25)</f>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C11,C17:C20,C26:C26)</f>
-        <v>15.8666666666667</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="4">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
+        <f>AVERAGE(C31:C34)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="3">
+        <f>AVERAGE(C2:C10,C16:C25,C31:C34)</f>
+        <v>15.7826086956522</v>
       </c>
     </row>
   </sheetData>
@@ -1963,10 +2043,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1989,7 +2069,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2000,301 +2080,169 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>16.25</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>16.5</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>14</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="2">
+        <f>AVERAGE(C13:C13)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C15:C21)</f>
-        <v>14.8571428571429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="3">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4">
+        <f>AVERAGE(C19:C20)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="3">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="3">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="3">
-        <f>AVERAGE(C27:C32)</f>
-        <v>13.6666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="4">
-        <f>AVERAGE(C2:C9,C15:C21,C27:C32)</f>
-        <v>15.047619047619</v>
+      <c r="C26" s="3">
+        <f>AVERAGE(C2:C7,C13:C13,C19:C20)</f>
+        <v>16.1111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -2306,10 +2254,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2332,169 +2280,224 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>14.7777777777778</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C16:C21)</f>
+        <v>12.8333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C2:C10,C16:C21)</f>
         <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>16.2</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2">
-        <f>AVERAGE(C12:C12)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3">
-        <f>AVERAGE(C18:C19)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="4">
-        <f>AVERAGE(C2:C6,C12:C12,C18:C19)</f>
-        <v>15.25</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/guyue/zz_guyue_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/guyue/zz_guyue_level.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="12090" windowHeight="11730" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="禅意" sheetId="6" r:id="rId1"/>
     <sheet name="帝国" sheetId="7" r:id="rId2"/>
     <sheet name="冬神" sheetId="10" r:id="rId3"/>
-    <sheet name="蛮石" sheetId="8" r:id="rId4"/>
+    <sheet name="隐秘" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>名称</t>
   </si>
@@ -47,25 +47,13 @@
     <t>长耳庄巧姑</t>
   </si>
   <si>
-    <t>苦行武僧</t>
-  </si>
-  <si>
-    <t>龟族僧人</t>
-  </si>
-  <si>
-    <t>执剑道者</t>
-  </si>
-  <si>
     <t>深山采药人</t>
   </si>
   <si>
-    <t>连击</t>
-  </si>
-  <si>
     <t>叶幻师</t>
   </si>
   <si>
-    <t>铁山靠</t>
+    <t>风卷残云</t>
   </si>
   <si>
     <t>小计：</t>
@@ -74,46 +62,40 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
+    <t>植甲师</t>
+  </si>
+  <si>
     <t>传记·月落</t>
   </si>
   <si>
     <t>宫廷乐师</t>
   </si>
   <si>
-    <t>扫叶僧</t>
-  </si>
-  <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
     <t>雪山飞狐</t>
   </si>
   <si>
-    <t>当铺掌柜</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
     <t>百刺浪客</t>
   </si>
   <si>
+    <t>黑竹林地</t>
+  </si>
+  <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
     <t>龙纹尊者</t>
   </si>
   <si>
-    <t>赏金刺客</t>
-  </si>
-  <si>
-    <t>白鹿贤士</t>
-  </si>
-  <si>
     <t>萌化术</t>
   </si>
   <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
     <t>渡船隐士</t>
   </si>
   <si>
-    <t>万物之灵</t>
+    <t>披甲罗汉</t>
   </si>
   <si>
     <t>紫色卡等：</t>
@@ -122,18 +104,15 @@
     <t>流岚刃·琳</t>
   </si>
   <si>
-    <t>灵龟神丹</t>
+    <t>神机玄女·轩</t>
+  </si>
+  <si>
+    <t>悟能禅杖</t>
   </si>
   <si>
     <t>雪域春光·凛</t>
   </si>
   <si>
-    <t>悟能禅杖</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
-  </si>
-  <si>
     <t>逍遥居士·铭</t>
   </si>
   <si>
@@ -146,24 +125,18 @@
     <t>禅意卡等：</t>
   </si>
   <si>
-    <t>圣殿斥候</t>
-  </si>
-  <si>
     <t>圣殿卫士</t>
   </si>
   <si>
-    <t>民兵队长</t>
-  </si>
-  <si>
     <t>圣殿弩手</t>
   </si>
   <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
     <t>增援战线</t>
   </si>
   <si>
-    <t>田园守望者</t>
-  </si>
-  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -176,22 +149,13 @@
     <t>圣殿御卫</t>
   </si>
   <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
     <t>圣殿骑士</t>
   </si>
   <si>
-    <t>冲锋装备</t>
-  </si>
-  <si>
     <t>召集护卫</t>
   </si>
   <si>
-    <t>田园保卫战</t>
-  </si>
-  <si>
-    <t>禁卫指挥官</t>
+    <t>曙光·安娜贝尔</t>
   </si>
   <si>
     <t>圣枪·卡洛琳</t>
@@ -200,6 +164,9 @@
     <t>明日之音·露娜</t>
   </si>
   <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
@@ -224,9 +191,6 @@
     <t>神庙魔像</t>
   </si>
   <si>
-    <t>极地狂信者</t>
-  </si>
-  <si>
     <t>冰峰甲虫</t>
   </si>
   <si>
@@ -239,40 +203,40 @@
     <t>冬神卡等：</t>
   </si>
   <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
-    <t>蓄力射手</t>
-  </si>
-  <si>
-    <t>势如破竹</t>
-  </si>
-  <si>
-    <t>天降碎石</t>
-  </si>
-  <si>
-    <t>强行捕猎</t>
-  </si>
-  <si>
-    <t>无畏猎户</t>
-  </si>
-  <si>
-    <t>暴怒野人</t>
-  </si>
-  <si>
-    <t>地洞巨獾</t>
-  </si>
-  <si>
-    <t>飞斧狂人</t>
-  </si>
-  <si>
-    <t>飞斧女豪</t>
-  </si>
-  <si>
-    <t>石斧头领</t>
-  </si>
-  <si>
-    <t>蛮石卡等：</t>
+    <t>沉重否定</t>
+  </si>
+  <si>
+    <t>全数否定</t>
+  </si>
+  <si>
+    <t>破魔系教授</t>
+  </si>
+  <si>
+    <t>克隆术</t>
+  </si>
+  <si>
+    <t>学仆-脉冲型</t>
+  </si>
+  <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>改造魔卷</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>心灵操控</t>
+  </si>
+  <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>No.6沃凡瑞拉</t>
+  </si>
+  <si>
+    <t>No.3伊斯多维尔</t>
   </si>
 </sst>
 </file>
@@ -919,10 +883,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,10 +1200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1298,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1320,173 +1284,173 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>17.7142857142857</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>19.1</v>
-      </c>
-      <c r="D14" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
         <v>17</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2">
         <v>17</v>
@@ -1494,179 +1458,124 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2">
-        <v>15</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2">
-        <v>12</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2">
+        <f>AVERAGE(C14:C26)</f>
+        <v>16.4615384615385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B35" s="3">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="3">
         <v>5</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C36" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="2">
-        <f>AVERAGE(C17:C30)</f>
-        <v>16.8571428571429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="C39" s="3">
+        <f>AVERAGE(C32:C36)</f>
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="4">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="4">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="4">
-        <v>4</v>
-      </c>
-      <c r="C38" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="4">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="4">
-        <v>4</v>
-      </c>
-      <c r="C40" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="4">
-        <v>5</v>
-      </c>
-      <c r="C41" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="4">
-        <f>AVERAGE(C36:C41)</f>
-        <v>16.1666666666667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="3">
-        <f>AVERAGE(C2:C11,C17:C30,C36:C41)</f>
-        <v>17.4666666666667</v>
+      <c r="C42" s="4">
+        <f>AVERAGE(C2:C8,C14:C26,C32:C36)</f>
+        <v>17.04</v>
       </c>
     </row>
   </sheetData>
@@ -1678,10 +1587,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1704,51 +1613,51 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1759,279 +1668,224 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>17.5714285714286</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>16.8888888888889</v>
-      </c>
-      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>17</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>18</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="2">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C24" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2">
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="3">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="2">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="2">
-        <f>AVERAGE(C16:C25)</f>
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="4">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="4">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4">
-        <v>6</v>
-      </c>
-      <c r="C33" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="4">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4">
-        <v>14</v>
+      <c r="C32" s="3">
+        <f>AVERAGE(C24:C29)</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="4">
-        <f>AVERAGE(C31:C34)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="3">
-        <f>AVERAGE(C2:C10,C16:C25,C31:C34)</f>
-        <v>15.7826086956522</v>
+      <c r="A35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C8,C14:C18,C24:C29)</f>
+        <v>16.7777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -2043,10 +1897,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2069,7 +1923,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2080,7 +1934,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2091,7 +1945,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2102,7 +1956,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2113,59 +1967,53 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>16</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>16.5</v>
-      </c>
-      <c r="D10" s="2"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>16.8</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>17</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>
@@ -2173,76 +2021,71 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <f>AVERAGE(C12:C12)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2">
-        <f>AVERAGE(C13:C13)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="4">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="C22" s="3">
+        <f>AVERAGE(C18:C19)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="4">
-        <f>AVERAGE(C19:C20)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3">
-        <f>AVERAGE(C2:C7,C13:C13,C19:C20)</f>
-        <v>16.1111111111111</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="4">
+        <f>AVERAGE(C2:C6,C12:C12,C18:C19)</f>
+        <v>16.625</v>
       </c>
     </row>
   </sheetData>
@@ -2254,10 +2097,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="$A40:$XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2280,10 +2123,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>12</v>
@@ -2291,10 +2134,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -2302,202 +2145,230 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C15" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>14.7777777777778</v>
-      </c>
-      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>12</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>12</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="2">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C10:C18)</f>
+        <v>13.7777777777778</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3">
         <v>5</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C24" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
         <v>12</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C16:C21)</f>
-        <v>12.8333333333333</v>
-      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C2:C10,C16:C21)</f>
-        <v>14</v>
+        <f>AVERAGE(C24:C26)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C4,C10:C18,C24:C26)</f>
+        <v>13.3333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/guyue/zz_guyue_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/guyue/zz_guyue_level.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12090" windowHeight="11730" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="10725" windowHeight="11385" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="禅意" sheetId="6" r:id="rId1"/>
     <sheet name="帝国" sheetId="7" r:id="rId2"/>
     <sheet name="冬神" sheetId="10" r:id="rId3"/>
-    <sheet name="隐秘" sheetId="8" r:id="rId4"/>
+    <sheet name="蛮石" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>名称</t>
   </si>
@@ -44,15 +44,30 @@
     <t>雪庐草人</t>
   </si>
   <si>
+    <t>苦行武僧</t>
+  </si>
+  <si>
     <t>长耳庄巧姑</t>
   </si>
   <si>
+    <t>龟族僧人</t>
+  </si>
+  <si>
+    <t>雪狐剑客</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
     <t>深山采药人</t>
   </si>
   <si>
     <t>叶幻师</t>
   </si>
   <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
     <t>风卷残云</t>
   </si>
   <si>
@@ -62,9 +77,6 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
-    <t>植甲师</t>
-  </si>
-  <si>
     <t>传记·月落</t>
   </si>
   <si>
@@ -74,36 +86,36 @@
     <t>雪山飞狐</t>
   </si>
   <si>
+    <t>当铺掌柜</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
     <t>百刺浪客</t>
   </si>
   <si>
     <t>黑竹林地</t>
   </si>
   <si>
-    <t>墨轩隐士</t>
-  </si>
-  <si>
-    <t>龙纹尊者</t>
-  </si>
-  <si>
     <t>萌化术</t>
   </si>
   <si>
+    <t>渡船隐士</t>
+  </si>
+  <si>
     <t>万物之灵</t>
   </si>
   <si>
-    <t>渡船隐士</t>
-  </si>
-  <si>
-    <t>披甲罗汉</t>
-  </si>
-  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
     <t>流岚刃·琳</t>
   </si>
   <si>
+    <t>灵龟神丹</t>
+  </si>
+  <si>
     <t>神机玄女·轩</t>
   </si>
   <si>
@@ -113,9 +125,6 @@
     <t>雪域春光·凛</t>
   </si>
   <si>
-    <t>逍遥居士·铭</t>
-  </si>
-  <si>
     <t>橙色卡等：</t>
   </si>
   <si>
@@ -125,7 +134,7 @@
     <t>禅意卡等：</t>
   </si>
   <si>
-    <t>圣殿卫士</t>
+    <t>炫目神光</t>
   </si>
   <si>
     <t>圣殿弩手</t>
@@ -140,13 +149,13 @@
     <t>光明惩戒</t>
   </si>
   <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
     <t>四芒军旗</t>
   </si>
   <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
-    <t>圣殿御卫</t>
+    <t>白袍主教</t>
   </si>
   <si>
     <t>圣殿骑士</t>
@@ -155,7 +164,7 @@
     <t>召集护卫</t>
   </si>
   <si>
-    <t>曙光·安娜贝尔</t>
+    <t>夺取阵地</t>
   </si>
   <si>
     <t>圣枪·卡洛琳</t>
@@ -164,9 +173,6 @@
     <t>明日之音·露娜</t>
   </si>
   <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
     <t>骨爆</t>
   </si>
   <si>
+    <t>战场遗迹</t>
+  </si>
+  <si>
     <t>转化仪式</t>
   </si>
   <si>
@@ -191,52 +200,67 @@
     <t>神庙魔像</t>
   </si>
   <si>
+    <t>极地狂信者</t>
+  </si>
+  <si>
+    <t>绝望之地</t>
+  </si>
+  <si>
+    <t>寒冰骨墙</t>
+  </si>
+  <si>
     <t>冰峰甲虫</t>
   </si>
   <si>
+    <t>咒杀酷吏</t>
+  </si>
+  <si>
     <t>寒风血刃</t>
   </si>
   <si>
+    <t>冰野荒芜计划</t>
+  </si>
+  <si>
     <t>永夜女王</t>
   </si>
   <si>
     <t>冬神卡等：</t>
   </si>
   <si>
-    <t>沉重否定</t>
-  </si>
-  <si>
-    <t>全数否定</t>
-  </si>
-  <si>
-    <t>破魔系教授</t>
-  </si>
-  <si>
-    <t>克隆术</t>
-  </si>
-  <si>
-    <t>学仆-脉冲型</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>改造魔卷</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>心灵操控</t>
-  </si>
-  <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>No.6沃凡瑞拉</t>
-  </si>
-  <si>
-    <t>No.3伊斯多维尔</t>
+    <t>愚笨鲸头鹅</t>
+  </si>
+  <si>
+    <t>势如破竹</t>
+  </si>
+  <si>
+    <t>蓄力射手</t>
+  </si>
+  <si>
+    <t>生命源力</t>
+  </si>
+  <si>
+    <t>强行捕猎</t>
+  </si>
+  <si>
+    <t>无畏猎户</t>
+  </si>
+  <si>
+    <t>诱敌草人</t>
+  </si>
+  <si>
+    <t>肥鼠晚宴</t>
+  </si>
+  <si>
+    <t>活力仙人</t>
+  </si>
+  <si>
+    <t>飞斧狂人</t>
+  </si>
+  <si>
+    <t>飞斧女豪</t>
+  </si>
+  <si>
+    <t>蛮石卡等：</t>
   </si>
 </sst>
 </file>
@@ -1200,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1232,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1243,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1254,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1262,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1276,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1284,193 +1308,199 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C12" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>17.7142857142857</v>
-      </c>
-      <c r="D11" s="2"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <f>AVERAGE(C2:C12)</f>
+        <v>19.5454545454545</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
         <v>19</v>
-      </c>
-      <c r="B24" s="2">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2"/>
@@ -1478,76 +1508,76 @@
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2">
-        <f>AVERAGE(C14:C26)</f>
-        <v>16.4615384615385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="3">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3">
-        <v>18</v>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2">
+        <f>AVERAGE(C18:C27)</f>
+        <v>17.2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
       </c>
       <c r="C35" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3"/>
@@ -1555,27 +1585,32 @@
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="3">
-        <f>AVERAGE(C32:C36)</f>
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="4">
-        <f>AVERAGE(C2:C8,C14:C26,C32:C36)</f>
-        <v>17.04</v>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="3">
+        <f>AVERAGE(C33:C37)</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="4">
+        <f>AVERAGE(C2:C12,C18:C27,C33:C37)</f>
+        <v>18.1153846153846</v>
       </c>
     </row>
   </sheetData>
@@ -1587,10 +1622,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1613,7 +1648,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1624,18 +1659,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1646,18 +1681,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1668,77 +1703,77 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>15</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>17.5714285714286</v>
-      </c>
-      <c r="D11" s="2"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>19</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>17</v>
@@ -1746,10 +1781,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>17</v>
@@ -1757,13 +1792,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1778,114 +1813,92 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
-        <f>AVERAGE(C14:C18)</f>
-        <v>16</v>
+        <f>AVERAGE(C13:C18)</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="3">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>17</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="3">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>16</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C24:C29)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C8,C14:C18,C24:C29)</f>
-        <v>16.7777777777778</v>
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C24:C27)</f>
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C7,C13:C18,C24:C27)</f>
+        <v>17.25</v>
       </c>
     </row>
   </sheetData>
@@ -1897,10 +1910,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1923,18 +1936,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1945,147 +1958,224 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>16.8</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>15.3333333333333</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2">
-        <f>AVERAGE(C12:C12)</f>
-        <v>17</v>
+      <c r="C17" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C16:C18)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="3">
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C26" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3">
-        <f>AVERAGE(C18:C19)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="4">
-        <f>AVERAGE(C2:C6,C12:C12,C18:C19)</f>
-        <v>16.625</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C24:C26)</f>
+        <v>14.6666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C10,C16:C18,C24:C26)</f>
+        <v>14.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2190,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="$A40:$XFD40"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2123,216 +2213,212 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <f>AVERAGE(C2:C4)</f>
-        <v>13.3333333333333</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+    </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>14.8888888888889</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
       </c>
       <c r="C21" s="2">
-        <f>AVERAGE(C10:C18)</f>
-        <v>13.7777777777778</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3">
-        <v>12</v>
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C16:C21)</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2347,28 +2433,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
+        <v>31</v>
+      </c>
+      <c r="C29" s="3" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C4,C10:C18,C24:C26)</f>
-        <v>13.3333333333333</v>
+        <f>AVERAGE(C2:C10,C16:C21)</f>
+        <v>15.9333333333333</v>
       </c>
     </row>
   </sheetData>
